--- a/Documentation/VRAE_ExifTool_Tags.xlsx
+++ b/Documentation/VRAE_ExifTool_Tags.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computer User\Documents\GitHub\VRA-Core-Essentials-ExifTool-config\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7761418F-39F8-4499-A13D-D7D621C317FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01ABC42-5C3E-41D6-A063-C8BD9D74D267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="794">
   <si>
     <t>Tag</t>
   </si>
@@ -2373,6 +2373,57 @@
   </si>
   <si>
     <t>WorkAgentIndexed "[{Extent= , Attribution= , Name= , NameType= , NameVocab= , NameRefid= , NameHref= , NameSource= , DateEarliest= , DateLatest= , DateType= , Culture=[{Value= , Href= , Refid= , Source= , Vocab= }], Role=[{Value= , Href= , Source= , Refid= , Vocab= }], Source= }]"</t>
+  </si>
+  <si>
+    <t>ImageWorktype</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexed</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexed "[{Value= Vocab= Refid= Href= Extent= Source= }]"</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexed "[{Value= }]"</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexedValue</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexed "[{Vocab= }]"</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexedVocab</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexed "[{Refid= }]"</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexedRefid</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexed "[{Href= }]"</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexedHref</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexed "[{Extent= }]"</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexedExtent</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexed "[{Source= }]"</t>
+  </si>
+  <si>
+    <t>ImageWorktypeIndexedSource</t>
+  </si>
+  <si>
+    <t>exiftool -config vrae.config -xmp-vrae:ImageWorkType="IMAGE WORK TYPE" "C:\Users\Computer User\Project\vrae_exiftool_example.jpg"</t>
+  </si>
+  <si>
+    <t>exiftool -config vrae.config -xmp-vrae:ImageWorktypeIndexed="[{Value=IMAGE TYPE VALUE,  Vocab=AAT,  Refid=WORK TYPE REFID,  Href=WORK TYPE HREF,  Extent=WORK TYPE EXTENT,  Source=WORK TYPE SOURCE}]" "C:\Users\Computer User\Project\vrae_exiftool_example.jpg"</t>
   </si>
 </sst>
 </file>
@@ -2709,11 +2760,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA953"/>
+  <dimension ref="A1:AA961"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A309" sqref="A309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14985,345 +15036,341 @@
     </row>
     <row r="300" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>152</v>
+        <v>777</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C300" s="1"/>
+      <c r="C300" s="2"/>
       <c r="D300" s="9" t="s">
-        <v>152</v>
+        <v>777</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>152</v>
+        <v>777</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G300" s="7"/>
       <c r="H300" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="I300" s="3"/>
+        <v>792</v>
+      </c>
+      <c r="I300" s="4"/>
       <c r="J300" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K300" s="1"/>
-      <c r="L300" s="1"/>
-      <c r="M300" s="1"/>
-      <c r="N300" s="1"/>
-      <c r="O300" s="1"/>
-      <c r="P300" s="1"/>
-      <c r="Q300" s="1"/>
-      <c r="R300" s="1"/>
-      <c r="S300" s="1"/>
-      <c r="T300" s="1"/>
-      <c r="U300" s="1"/>
-      <c r="V300" s="1"/>
-      <c r="W300" s="1"/>
-      <c r="X300" s="1"/>
-      <c r="Y300" s="1"/>
-      <c r="Z300" s="1"/>
-      <c r="AA300" s="1"/>
-    </row>
-    <row r="301" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
+      <c r="K300" s="2"/>
+      <c r="L300" s="2"/>
+      <c r="M300" s="2"/>
+      <c r="N300" s="2"/>
+      <c r="O300" s="2"/>
+      <c r="P300" s="2"/>
+      <c r="Q300" s="2"/>
+      <c r="R300" s="2"/>
+      <c r="S300" s="2"/>
+      <c r="T300" s="2"/>
+      <c r="U300" s="2"/>
+      <c r="V300" s="2"/>
+      <c r="W300" s="2"/>
+      <c r="X300" s="2"/>
+      <c r="Y300" s="2"/>
+      <c r="Z300" s="2"/>
+      <c r="AA300" s="2"/>
+    </row>
+    <row r="301" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>778</v>
+      </c>
       <c r="B301" s="2" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="9" t="s">
-        <v>464</v>
+        <v>779</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>452</v>
+        <v>778</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G301" s="7"/>
-      <c r="H301" s="7"/>
-      <c r="I301" s="3"/>
+      <c r="H301" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="I301" s="4"/>
       <c r="J301" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K301" s="1"/>
-      <c r="L301" s="1"/>
-      <c r="M301" s="1"/>
-      <c r="N301" s="1"/>
-      <c r="O301" s="1"/>
-      <c r="P301" s="1"/>
-      <c r="Q301" s="1"/>
-      <c r="R301" s="1"/>
-      <c r="S301" s="1"/>
-      <c r="T301" s="1"/>
-      <c r="U301" s="1"/>
-      <c r="V301" s="1"/>
-      <c r="W301" s="1"/>
-      <c r="X301" s="1"/>
-      <c r="Y301" s="1"/>
-      <c r="Z301" s="1"/>
-      <c r="AA301" s="1"/>
+      <c r="K301" s="2"/>
+      <c r="L301" s="2"/>
+      <c r="M301" s="2"/>
+      <c r="N301" s="2"/>
+      <c r="O301" s="2"/>
+      <c r="P301" s="2"/>
+      <c r="Q301" s="2"/>
+      <c r="R301" s="2"/>
+      <c r="S301" s="2"/>
+      <c r="T301" s="2"/>
+      <c r="U301" s="2"/>
+      <c r="V301" s="2"/>
+      <c r="W301" s="2"/>
+      <c r="X301" s="2"/>
+      <c r="Y301" s="2"/>
+      <c r="Z301" s="2"/>
+      <c r="AA301" s="2"/>
     </row>
     <row r="302" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
+      <c r="A302" s="2"/>
       <c r="B302" s="2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="9" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>453</v>
+        <v>781</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G302" s="7"/>
       <c r="H302" s="7"/>
-      <c r="I302" s="3"/>
+      <c r="I302" s="4"/>
       <c r="J302" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K302" s="1"/>
-      <c r="L302" s="1"/>
-      <c r="M302" s="1"/>
-      <c r="N302" s="1"/>
-      <c r="O302" s="1"/>
-      <c r="P302" s="1"/>
-      <c r="Q302" s="1"/>
-      <c r="R302" s="1"/>
-      <c r="S302" s="1"/>
-      <c r="T302" s="1"/>
-      <c r="U302" s="1"/>
-      <c r="V302" s="1"/>
-      <c r="W302" s="1"/>
-      <c r="X302" s="1"/>
-      <c r="Y302" s="1"/>
-      <c r="Z302" s="1"/>
-      <c r="AA302" s="1"/>
-    </row>
-    <row r="303" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="K302" s="2"/>
+      <c r="L302" s="2"/>
+      <c r="M302" s="2"/>
+      <c r="N302" s="2"/>
+      <c r="O302" s="2"/>
+      <c r="P302" s="2"/>
+      <c r="Q302" s="2"/>
+      <c r="R302" s="2"/>
+      <c r="S302" s="2"/>
+      <c r="T302" s="2"/>
+      <c r="U302" s="2"/>
+      <c r="V302" s="2"/>
+      <c r="W302" s="2"/>
+      <c r="X302" s="2"/>
+      <c r="Y302" s="2"/>
+      <c r="Z302" s="2"/>
+      <c r="AA302" s="2"/>
+    </row>
+    <row r="303" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A303" s="2"/>
       <c r="B303" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C303" s="1"/>
-      <c r="D303" s="15" t="s">
-        <v>155</v>
+        <v>205</v>
+      </c>
+      <c r="C303" s="2"/>
+      <c r="D303" s="9" t="s">
+        <v>782</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>155</v>
+        <v>783</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G303" s="7"/>
-      <c r="H303" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="I303" s="3"/>
+      <c r="H303" s="7"/>
+      <c r="I303" s="4"/>
       <c r="J303" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K303" s="1"/>
-      <c r="L303" s="1"/>
-      <c r="M303" s="1"/>
-      <c r="N303" s="1"/>
-      <c r="O303" s="1"/>
-      <c r="P303" s="1"/>
-      <c r="Q303" s="1"/>
-      <c r="R303" s="1"/>
-      <c r="S303" s="1"/>
-      <c r="T303" s="1"/>
-      <c r="U303" s="1"/>
-      <c r="V303" s="1"/>
-      <c r="W303" s="1"/>
-      <c r="X303" s="1"/>
-      <c r="Y303" s="1"/>
-      <c r="Z303" s="1"/>
-      <c r="AA303" s="1"/>
+      <c r="K303" s="2"/>
+      <c r="L303" s="2"/>
+      <c r="M303" s="2"/>
+      <c r="N303" s="2"/>
+      <c r="O303" s="2"/>
+      <c r="P303" s="2"/>
+      <c r="Q303" s="2"/>
+      <c r="R303" s="2"/>
+      <c r="S303" s="2"/>
+      <c r="T303" s="2"/>
+      <c r="U303" s="2"/>
+      <c r="V303" s="2"/>
+      <c r="W303" s="2"/>
+      <c r="X303" s="2"/>
+      <c r="Y303" s="2"/>
+      <c r="Z303" s="2"/>
+      <c r="AA303" s="2"/>
     </row>
     <row r="304" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
+      <c r="A304" s="2"/>
       <c r="B304" s="2" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="9" t="s">
-        <v>465</v>
+        <v>784</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>454</v>
+        <v>785</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G304" s="7"/>
       <c r="H304" s="7"/>
-      <c r="I304" s="3"/>
+      <c r="I304" s="4"/>
       <c r="J304" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K304" s="1"/>
-      <c r="L304" s="1"/>
-      <c r="M304" s="1"/>
-      <c r="N304" s="1"/>
-      <c r="O304" s="1"/>
-      <c r="P304" s="1"/>
-      <c r="Q304" s="1"/>
-      <c r="R304" s="1"/>
-      <c r="S304" s="1"/>
-      <c r="T304" s="1"/>
-      <c r="U304" s="1"/>
-      <c r="V304" s="1"/>
-      <c r="W304" s="1"/>
-      <c r="X304" s="1"/>
-      <c r="Y304" s="1"/>
-      <c r="Z304" s="1"/>
-      <c r="AA304" s="1"/>
+      <c r="K304" s="2"/>
+      <c r="L304" s="2"/>
+      <c r="M304" s="2"/>
+      <c r="N304" s="2"/>
+      <c r="O304" s="2"/>
+      <c r="P304" s="2"/>
+      <c r="Q304" s="2"/>
+      <c r="R304" s="2"/>
+      <c r="S304" s="2"/>
+      <c r="T304" s="2"/>
+      <c r="U304" s="2"/>
+      <c r="V304" s="2"/>
+      <c r="W304" s="2"/>
+      <c r="X304" s="2"/>
+      <c r="Y304" s="2"/>
+      <c r="Z304" s="2"/>
+      <c r="AA304" s="2"/>
     </row>
     <row r="305" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
+      <c r="A305" s="2"/>
       <c r="B305" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="9" t="s">
-        <v>691</v>
+        <v>786</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>455</v>
+        <v>787</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G305" s="7"/>
+      <c r="G305" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="H305" s="7"/>
-      <c r="I305" s="3"/>
-      <c r="J305" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K305" s="1"/>
-      <c r="L305" s="1"/>
-      <c r="M305" s="1"/>
-      <c r="N305" s="1"/>
-      <c r="O305" s="1"/>
-      <c r="P305" s="1"/>
-      <c r="Q305" s="1"/>
-      <c r="R305" s="1"/>
-      <c r="S305" s="1"/>
-      <c r="T305" s="1"/>
-      <c r="U305" s="1"/>
-      <c r="V305" s="1"/>
-      <c r="W305" s="1"/>
-      <c r="X305" s="1"/>
-      <c r="Y305" s="1"/>
-      <c r="Z305" s="1"/>
-      <c r="AA305" s="1"/>
-    </row>
-    <row r="306" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="I305" s="4"/>
+      <c r="J305" s="2"/>
+      <c r="K305" s="2"/>
+      <c r="L305" s="2"/>
+      <c r="M305" s="2"/>
+      <c r="N305" s="2"/>
+      <c r="O305" s="2"/>
+      <c r="P305" s="2"/>
+      <c r="Q305" s="2"/>
+      <c r="R305" s="2"/>
+      <c r="S305" s="2"/>
+      <c r="T305" s="2"/>
+      <c r="U305" s="2"/>
+      <c r="V305" s="2"/>
+      <c r="W305" s="2"/>
+      <c r="X305" s="2"/>
+      <c r="Y305" s="2"/>
+      <c r="Z305" s="2"/>
+      <c r="AA305" s="2"/>
+    </row>
+    <row r="306" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A306" s="2"/>
       <c r="B306" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C306" s="1"/>
+        <v>198</v>
+      </c>
+      <c r="C306" s="2"/>
       <c r="D306" s="9" t="s">
-        <v>156</v>
+        <v>788</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>156</v>
+        <v>789</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G306" s="7"/>
-      <c r="H306" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="I306" s="3"/>
-      <c r="J306" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K306" s="1"/>
-      <c r="L306" s="1"/>
-      <c r="M306" s="1"/>
-      <c r="N306" s="1"/>
-      <c r="O306" s="1"/>
-      <c r="P306" s="1"/>
-      <c r="Q306" s="1"/>
-      <c r="R306" s="1"/>
-      <c r="S306" s="1"/>
-      <c r="T306" s="1"/>
-      <c r="U306" s="1"/>
-      <c r="V306" s="1"/>
-      <c r="W306" s="1"/>
-      <c r="X306" s="1"/>
-      <c r="Y306" s="1"/>
-      <c r="Z306" s="1"/>
-      <c r="AA306" s="1"/>
+      <c r="H306" s="7"/>
+      <c r="I306" s="4"/>
+      <c r="J306" s="2"/>
+      <c r="K306" s="2"/>
+      <c r="L306" s="2"/>
+      <c r="M306" s="2"/>
+      <c r="N306" s="2"/>
+      <c r="O306" s="2"/>
+      <c r="P306" s="2"/>
+      <c r="Q306" s="2"/>
+      <c r="R306" s="2"/>
+      <c r="S306" s="2"/>
+      <c r="T306" s="2"/>
+      <c r="U306" s="2"/>
+      <c r="V306" s="2"/>
+      <c r="W306" s="2"/>
+      <c r="X306" s="2"/>
+      <c r="Y306" s="2"/>
+      <c r="Z306" s="2"/>
+      <c r="AA306" s="2"/>
     </row>
     <row r="307" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
+      <c r="A307" s="2"/>
       <c r="B307" s="2" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="9" t="s">
-        <v>466</v>
+        <v>790</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>456</v>
+        <v>791</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G307" s="7"/>
       <c r="H307" s="7"/>
-      <c r="I307" s="3"/>
-      <c r="J307" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K307" s="1"/>
-      <c r="L307" s="1"/>
-      <c r="M307" s="1"/>
-      <c r="N307" s="1"/>
-      <c r="O307" s="1"/>
-      <c r="P307" s="1"/>
-      <c r="Q307" s="1"/>
-      <c r="R307" s="1"/>
-      <c r="S307" s="1"/>
-      <c r="T307" s="1"/>
-      <c r="U307" s="1"/>
-      <c r="V307" s="1"/>
-      <c r="W307" s="1"/>
-      <c r="X307" s="1"/>
-      <c r="Y307" s="1"/>
-      <c r="Z307" s="1"/>
-      <c r="AA307" s="1"/>
-    </row>
-    <row r="308" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
+      <c r="I307" s="4"/>
+      <c r="J307" s="2"/>
+      <c r="K307" s="2"/>
+      <c r="L307" s="2"/>
+      <c r="M307" s="2"/>
+      <c r="N307" s="2"/>
+      <c r="O307" s="2"/>
+      <c r="P307" s="2"/>
+      <c r="Q307" s="2"/>
+      <c r="R307" s="2"/>
+      <c r="S307" s="2"/>
+      <c r="T307" s="2"/>
+      <c r="U307" s="2"/>
+      <c r="V307" s="2"/>
+      <c r="W307" s="2"/>
+      <c r="X307" s="2"/>
+      <c r="Y307" s="2"/>
+      <c r="Z307" s="2"/>
+      <c r="AA307" s="2"/>
+    </row>
+    <row r="308" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="B308" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C308" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C308" s="1"/>
       <c r="D308" s="9" t="s">
-        <v>692</v>
+        <v>152</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>457</v>
+        <v>152</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="G308" s="7"/>
-      <c r="H308" s="7"/>
+      <c r="H308" s="7" t="s">
+        <v>753</v>
+      </c>
       <c r="I308" s="3"/>
       <c r="J308" s="2" t="s">
         <v>22</v>
@@ -15346,27 +15393,23 @@
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
     </row>
-    <row r="309" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
-        <v>157</v>
-      </c>
+    <row r="309" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1"/>
       <c r="B309" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C309" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="C309" s="2"/>
       <c r="D309" s="9" t="s">
-        <v>157</v>
+        <v>464</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>157</v>
+        <v>452</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G309" s="7"/>
-      <c r="H309" s="7" t="s">
-        <v>756</v>
-      </c>
+      <c r="H309" s="7"/>
       <c r="I309" s="3"/>
       <c r="J309" s="2" t="s">
         <v>22</v>
@@ -15392,14 +15435,14 @@
     <row r="310" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="2" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="9" t="s">
-        <v>467</v>
+        <v>690</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>11</v>
@@ -15428,23 +15471,27 @@
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
     </row>
-    <row r="311" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
+    <row r="311" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="B311" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C311" s="2"/>
-      <c r="D311" s="9" t="s">
-        <v>693</v>
+        <v>203</v>
+      </c>
+      <c r="C311" s="1"/>
+      <c r="D311" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>459</v>
+        <v>155</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="G311" s="7"/>
-      <c r="H311" s="7"/>
+      <c r="H311" s="7" t="s">
+        <v>754</v>
+      </c>
       <c r="I311" s="3"/>
       <c r="J311" s="2" t="s">
         <v>22</v>
@@ -15467,27 +15514,23 @@
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
     </row>
-    <row r="312" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
-        <v>158</v>
-      </c>
+    <row r="312" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
       <c r="B312" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C312" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="C312" s="2"/>
       <c r="D312" s="9" t="s">
-        <v>158</v>
+        <v>465</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>158</v>
+        <v>454</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G312" s="7"/>
-      <c r="H312" s="7" t="s">
-        <v>757</v>
-      </c>
+      <c r="H312" s="7"/>
       <c r="I312" s="3"/>
       <c r="J312" s="2" t="s">
         <v>22</v>
@@ -15513,14 +15556,14 @@
     <row r="313" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="2" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="9" t="s">
-        <v>468</v>
+        <v>691</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>11</v>
@@ -15549,23 +15592,27 @@
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
     </row>
-    <row r="314" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
+    <row r="314" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="B314" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C314" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C314" s="1"/>
       <c r="D314" s="9" t="s">
-        <v>694</v>
+        <v>156</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>461</v>
+        <v>156</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="G314" s="7"/>
-      <c r="H314" s="7"/>
+      <c r="H314" s="7" t="s">
+        <v>755</v>
+      </c>
       <c r="I314" s="3"/>
       <c r="J314" s="2" t="s">
         <v>22</v>
@@ -15588,27 +15635,23 @@
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
     </row>
-    <row r="315" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
-        <v>159</v>
-      </c>
+    <row r="315" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1"/>
       <c r="B315" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C315" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="C315" s="2"/>
       <c r="D315" s="9" t="s">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>159</v>
+        <v>456</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G315" s="7"/>
-      <c r="H315" s="7" t="s">
-        <v>758</v>
-      </c>
+      <c r="H315" s="7"/>
       <c r="I315" s="3"/>
       <c r="J315" s="2" t="s">
         <v>22</v>
@@ -15634,14 +15677,14 @@
     <row r="316" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="2" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="9" t="s">
-        <v>469</v>
+        <v>692</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>11</v>
@@ -15670,23 +15713,27 @@
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
     </row>
-    <row r="317" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A317" s="1"/>
+    <row r="317" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="B317" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C317" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C317" s="1"/>
       <c r="D317" s="9" t="s">
-        <v>695</v>
+        <v>157</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>463</v>
+        <v>157</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="G317" s="7"/>
-      <c r="H317" s="7"/>
+      <c r="H317" s="7" t="s">
+        <v>756</v>
+      </c>
       <c r="I317" s="3"/>
       <c r="J317" s="2" t="s">
         <v>22</v>
@@ -15710,26 +15757,22 @@
       <c r="AA317" s="1"/>
     </row>
     <row r="318" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="A318" s="1"/>
       <c r="B318" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C318" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="C318" s="2"/>
       <c r="D318" s="9" t="s">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>160</v>
+        <v>458</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G318" s="7"/>
-      <c r="H318" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="H318" s="7"/>
       <c r="I318" s="3"/>
       <c r="J318" s="2" t="s">
         <v>22</v>
@@ -15753,26 +15796,22 @@
       <c r="AA318" s="1"/>
     </row>
     <row r="319" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="A319" s="1"/>
       <c r="B319" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C319" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="C319" s="2"/>
       <c r="D319" s="9" t="s">
-        <v>163</v>
+        <v>693</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>163</v>
+        <v>459</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G319" s="7"/>
-      <c r="H319" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="H319" s="7"/>
       <c r="I319" s="3"/>
       <c r="J319" s="2" t="s">
         <v>22</v>
@@ -15795,26 +15834,26 @@
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
     </row>
-    <row r="320" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="G320" s="7"/>
       <c r="H320" s="7" t="s">
-        <v>166</v>
+        <v>757</v>
       </c>
       <c r="I320" s="3"/>
       <c r="J320" s="2" t="s">
@@ -15839,21 +15878,19 @@
       <c r="AA320" s="1"/>
     </row>
     <row r="321" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="A321" s="1"/>
       <c r="B321" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C321" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="C321" s="2"/>
       <c r="D321" s="9" t="s">
-        <v>167</v>
+        <v>468</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>167</v>
+        <v>460</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G321" s="7"/>
       <c r="H321" s="7"/>
@@ -15880,26 +15917,22 @@
       <c r="AA321" s="1"/>
     </row>
     <row r="322" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="A322" s="1"/>
       <c r="B322" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C322" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="C322" s="2"/>
       <c r="D322" s="9" t="s">
-        <v>168</v>
+        <v>694</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>168</v>
+        <v>461</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G322" s="7"/>
-      <c r="H322" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="H322" s="7"/>
       <c r="I322" s="3"/>
       <c r="J322" s="2" t="s">
         <v>22</v>
@@ -15922,26 +15955,26 @@
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
     </row>
-    <row r="323" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="G323" s="7"/>
       <c r="H323" s="7" t="s">
-        <v>171</v>
+        <v>758</v>
       </c>
       <c r="I323" s="3"/>
       <c r="J323" s="2" t="s">
@@ -15966,26 +15999,22 @@
       <c r="AA323" s="1"/>
     </row>
     <row r="324" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="A324" s="1"/>
       <c r="B324" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C324" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="C324" s="2"/>
       <c r="D324" s="9" t="s">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>172</v>
+        <v>462</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G324" s="7"/>
-      <c r="H324" s="7" t="s">
-        <v>173</v>
-      </c>
+      <c r="H324" s="7"/>
       <c r="I324" s="3"/>
       <c r="J324" s="2" t="s">
         <v>22</v>
@@ -16009,26 +16038,22 @@
       <c r="AA324" s="1"/>
     </row>
     <row r="325" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="A325" s="1"/>
       <c r="B325" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C325" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="C325" s="2"/>
       <c r="D325" s="9" t="s">
-        <v>174</v>
+        <v>695</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>174</v>
+        <v>463</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G325" s="7"/>
-      <c r="H325" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="H325" s="7"/>
       <c r="I325" s="3"/>
       <c r="J325" s="2" t="s">
         <v>22</v>
@@ -16053,24 +16078,24 @@
     </row>
     <row r="326" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="9" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="G326" s="7"/>
       <c r="H326" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="I326" s="3"/>
       <c r="J326" s="2" t="s">
@@ -16096,24 +16121,24 @@
     </row>
     <row r="327" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="9" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G327" s="7"/>
       <c r="H327" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="I327" s="3"/>
       <c r="J327" s="2" t="s">
@@ -16137,26 +16162,26 @@
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
     </row>
-    <row r="328" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G328" s="7"/>
       <c r="H328" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="I328" s="3"/>
       <c r="J328" s="2" t="s">
@@ -16182,27 +16207,23 @@
     </row>
     <row r="329" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G329" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H329" s="7" t="s">
-        <v>183</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G329" s="7"/>
+      <c r="H329" s="7"/>
       <c r="I329" s="3"/>
       <c r="J329" s="2" t="s">
         <v>22</v>
@@ -16227,24 +16248,24 @@
     </row>
     <row r="330" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="9" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G330" s="7"/>
       <c r="H330" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="I330" s="3"/>
       <c r="J330" s="2" t="s">
@@ -16270,24 +16291,24 @@
     </row>
     <row r="331" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C331" s="1"/>
       <c r="D331" s="9" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G331" s="7"/>
       <c r="H331" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="I331" s="3"/>
       <c r="J331" s="2" t="s">
@@ -16313,24 +16334,24 @@
     </row>
     <row r="332" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C332" s="1"/>
       <c r="D332" s="9" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G332" s="7"/>
       <c r="H332" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="I332" s="3"/>
       <c r="J332" s="2" t="s">
@@ -16356,24 +16377,24 @@
     </row>
     <row r="333" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C333" s="1"/>
       <c r="D333" s="9" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G333" s="7"/>
       <c r="H333" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="I333" s="3"/>
       <c r="J333" s="2" t="s">
@@ -16399,24 +16420,24 @@
     </row>
     <row r="334" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C334" s="1"/>
       <c r="D334" s="9" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G334" s="7"/>
       <c r="H334" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="I334" s="3"/>
       <c r="J334" s="2" t="s">
@@ -16442,24 +16463,24 @@
     </row>
     <row r="335" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C335" s="1"/>
       <c r="D335" s="9" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G335" s="7"/>
       <c r="H335" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="I335" s="3"/>
       <c r="J335" s="2" t="s">
@@ -16483,26 +16504,26 @@
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
     </row>
-    <row r="336" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C336" s="1"/>
       <c r="D336" s="9" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G336" s="7"/>
       <c r="H336" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="I336" s="3"/>
       <c r="J336" s="2" t="s">
@@ -16528,24 +16549,26 @@
     </row>
     <row r="337" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="9" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G337" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="G337" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="H337" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="I337" s="3"/>
       <c r="J337" s="2" t="s">
@@ -16570,14 +16593,30 @@
       <c r="AA337" s="1"/>
     </row>
     <row r="338" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A338" s="1"/>
-      <c r="B338" s="2"/>
+      <c r="A338" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="C338" s="1"/>
-      <c r="F338" s="1"/>
+      <c r="D338" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G338" s="7"/>
-      <c r="H338" s="7"/>
+      <c r="H338" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="I338" s="3"/>
-      <c r="J338" s="1"/>
+      <c r="J338" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
       <c r="M338" s="1"/>
@@ -16597,14 +16636,30 @@
       <c r="AA338" s="1"/>
     </row>
     <row r="339" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A339" s="1"/>
-      <c r="B339" s="2"/>
+      <c r="A339" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="C339" s="1"/>
-      <c r="F339" s="1"/>
+      <c r="D339" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G339" s="7"/>
-      <c r="H339" s="7"/>
+      <c r="H339" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="I339" s="3"/>
-      <c r="J339" s="1"/>
+      <c r="J339" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
       <c r="M339" s="1"/>
@@ -16624,14 +16679,30 @@
       <c r="AA339" s="1"/>
     </row>
     <row r="340" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
-      <c r="B340" s="2"/>
+      <c r="A340" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="C340" s="1"/>
-      <c r="F340" s="1"/>
+      <c r="D340" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="G340" s="7"/>
-      <c r="H340" s="7"/>
+      <c r="H340" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="I340" s="3"/>
-      <c r="J340" s="1"/>
+      <c r="J340" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
       <c r="M340" s="1"/>
@@ -16651,14 +16722,30 @@
       <c r="AA340" s="1"/>
     </row>
     <row r="341" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A341" s="1"/>
-      <c r="B341" s="2"/>
+      <c r="A341" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="C341" s="1"/>
-      <c r="F341" s="1"/>
+      <c r="D341" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G341" s="7"/>
-      <c r="H341" s="7"/>
+      <c r="H341" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="I341" s="3"/>
-      <c r="J341" s="1"/>
+      <c r="J341" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
       <c r="M341" s="1"/>
@@ -16678,14 +16765,30 @@
       <c r="AA341" s="1"/>
     </row>
     <row r="342" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A342" s="1"/>
-      <c r="B342" s="2"/>
+      <c r="A342" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="C342" s="1"/>
-      <c r="F342" s="1"/>
+      <c r="D342" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="G342" s="7"/>
-      <c r="H342" s="7"/>
+      <c r="H342" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="I342" s="3"/>
-      <c r="J342" s="1"/>
+      <c r="J342" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
       <c r="M342" s="1"/>
@@ -16705,14 +16808,30 @@
       <c r="AA342" s="1"/>
     </row>
     <row r="343" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A343" s="1"/>
-      <c r="B343" s="2"/>
+      <c r="A343" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="C343" s="1"/>
-      <c r="F343" s="1"/>
+      <c r="D343" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G343" s="7"/>
-      <c r="H343" s="7"/>
+      <c r="H343" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="I343" s="3"/>
-      <c r="J343" s="1"/>
+      <c r="J343" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -16732,14 +16851,30 @@
       <c r="AA343" s="1"/>
     </row>
     <row r="344" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
-      <c r="B344" s="2"/>
+      <c r="A344" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="C344" s="1"/>
-      <c r="F344" s="1"/>
+      <c r="D344" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="G344" s="7"/>
-      <c r="H344" s="7"/>
+      <c r="H344" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="I344" s="3"/>
-      <c r="J344" s="1"/>
+      <c r="J344" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
       <c r="M344" s="1"/>
@@ -16759,14 +16894,30 @@
       <c r="AA344" s="1"/>
     </row>
     <row r="345" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A345" s="1"/>
-      <c r="B345" s="2"/>
+      <c r="A345" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="C345" s="1"/>
-      <c r="F345" s="1"/>
+      <c r="D345" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="G345" s="7"/>
-      <c r="H345" s="7"/>
+      <c r="H345" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="I345" s="3"/>
-      <c r="J345" s="1"/>
+      <c r="J345" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
@@ -33201,6 +33352,222 @@
       <c r="Z953" s="1"/>
       <c r="AA953" s="1"/>
     </row>
+    <row r="954" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A954" s="1"/>
+      <c r="B954" s="2"/>
+      <c r="C954" s="1"/>
+      <c r="F954" s="1"/>
+      <c r="G954" s="7"/>
+      <c r="H954" s="7"/>
+      <c r="I954" s="3"/>
+      <c r="J954" s="1"/>
+      <c r="K954" s="1"/>
+      <c r="L954" s="1"/>
+      <c r="M954" s="1"/>
+      <c r="N954" s="1"/>
+      <c r="O954" s="1"/>
+      <c r="P954" s="1"/>
+      <c r="Q954" s="1"/>
+      <c r="R954" s="1"/>
+      <c r="S954" s="1"/>
+      <c r="T954" s="1"/>
+      <c r="U954" s="1"/>
+      <c r="V954" s="1"/>
+      <c r="W954" s="1"/>
+      <c r="X954" s="1"/>
+      <c r="Y954" s="1"/>
+      <c r="Z954" s="1"/>
+      <c r="AA954" s="1"/>
+    </row>
+    <row r="955" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A955" s="1"/>
+      <c r="B955" s="2"/>
+      <c r="C955" s="1"/>
+      <c r="F955" s="1"/>
+      <c r="G955" s="7"/>
+      <c r="H955" s="7"/>
+      <c r="I955" s="3"/>
+      <c r="J955" s="1"/>
+      <c r="K955" s="1"/>
+      <c r="L955" s="1"/>
+      <c r="M955" s="1"/>
+      <c r="N955" s="1"/>
+      <c r="O955" s="1"/>
+      <c r="P955" s="1"/>
+      <c r="Q955" s="1"/>
+      <c r="R955" s="1"/>
+      <c r="S955" s="1"/>
+      <c r="T955" s="1"/>
+      <c r="U955" s="1"/>
+      <c r="V955" s="1"/>
+      <c r="W955" s="1"/>
+      <c r="X955" s="1"/>
+      <c r="Y955" s="1"/>
+      <c r="Z955" s="1"/>
+      <c r="AA955" s="1"/>
+    </row>
+    <row r="956" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A956" s="1"/>
+      <c r="B956" s="2"/>
+      <c r="C956" s="1"/>
+      <c r="F956" s="1"/>
+      <c r="G956" s="7"/>
+      <c r="H956" s="7"/>
+      <c r="I956" s="3"/>
+      <c r="J956" s="1"/>
+      <c r="K956" s="1"/>
+      <c r="L956" s="1"/>
+      <c r="M956" s="1"/>
+      <c r="N956" s="1"/>
+      <c r="O956" s="1"/>
+      <c r="P956" s="1"/>
+      <c r="Q956" s="1"/>
+      <c r="R956" s="1"/>
+      <c r="S956" s="1"/>
+      <c r="T956" s="1"/>
+      <c r="U956" s="1"/>
+      <c r="V956" s="1"/>
+      <c r="W956" s="1"/>
+      <c r="X956" s="1"/>
+      <c r="Y956" s="1"/>
+      <c r="Z956" s="1"/>
+      <c r="AA956" s="1"/>
+    </row>
+    <row r="957" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A957" s="1"/>
+      <c r="B957" s="2"/>
+      <c r="C957" s="1"/>
+      <c r="F957" s="1"/>
+      <c r="G957" s="7"/>
+      <c r="H957" s="7"/>
+      <c r="I957" s="3"/>
+      <c r="J957" s="1"/>
+      <c r="K957" s="1"/>
+      <c r="L957" s="1"/>
+      <c r="M957" s="1"/>
+      <c r="N957" s="1"/>
+      <c r="O957" s="1"/>
+      <c r="P957" s="1"/>
+      <c r="Q957" s="1"/>
+      <c r="R957" s="1"/>
+      <c r="S957" s="1"/>
+      <c r="T957" s="1"/>
+      <c r="U957" s="1"/>
+      <c r="V957" s="1"/>
+      <c r="W957" s="1"/>
+      <c r="X957" s="1"/>
+      <c r="Y957" s="1"/>
+      <c r="Z957" s="1"/>
+      <c r="AA957" s="1"/>
+    </row>
+    <row r="958" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A958" s="1"/>
+      <c r="B958" s="2"/>
+      <c r="C958" s="1"/>
+      <c r="F958" s="1"/>
+      <c r="G958" s="7"/>
+      <c r="H958" s="7"/>
+      <c r="I958" s="3"/>
+      <c r="J958" s="1"/>
+      <c r="K958" s="1"/>
+      <c r="L958" s="1"/>
+      <c r="M958" s="1"/>
+      <c r="N958" s="1"/>
+      <c r="O958" s="1"/>
+      <c r="P958" s="1"/>
+      <c r="Q958" s="1"/>
+      <c r="R958" s="1"/>
+      <c r="S958" s="1"/>
+      <c r="T958" s="1"/>
+      <c r="U958" s="1"/>
+      <c r="V958" s="1"/>
+      <c r="W958" s="1"/>
+      <c r="X958" s="1"/>
+      <c r="Y958" s="1"/>
+      <c r="Z958" s="1"/>
+      <c r="AA958" s="1"/>
+    </row>
+    <row r="959" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A959" s="1"/>
+      <c r="B959" s="2"/>
+      <c r="C959" s="1"/>
+      <c r="F959" s="1"/>
+      <c r="G959" s="7"/>
+      <c r="H959" s="7"/>
+      <c r="I959" s="3"/>
+      <c r="J959" s="1"/>
+      <c r="K959" s="1"/>
+      <c r="L959" s="1"/>
+      <c r="M959" s="1"/>
+      <c r="N959" s="1"/>
+      <c r="O959" s="1"/>
+      <c r="P959" s="1"/>
+      <c r="Q959" s="1"/>
+      <c r="R959" s="1"/>
+      <c r="S959" s="1"/>
+      <c r="T959" s="1"/>
+      <c r="U959" s="1"/>
+      <c r="V959" s="1"/>
+      <c r="W959" s="1"/>
+      <c r="X959" s="1"/>
+      <c r="Y959" s="1"/>
+      <c r="Z959" s="1"/>
+      <c r="AA959" s="1"/>
+    </row>
+    <row r="960" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A960" s="1"/>
+      <c r="B960" s="2"/>
+      <c r="C960" s="1"/>
+      <c r="F960" s="1"/>
+      <c r="G960" s="7"/>
+      <c r="H960" s="7"/>
+      <c r="I960" s="3"/>
+      <c r="J960" s="1"/>
+      <c r="K960" s="1"/>
+      <c r="L960" s="1"/>
+      <c r="M960" s="1"/>
+      <c r="N960" s="1"/>
+      <c r="O960" s="1"/>
+      <c r="P960" s="1"/>
+      <c r="Q960" s="1"/>
+      <c r="R960" s="1"/>
+      <c r="S960" s="1"/>
+      <c r="T960" s="1"/>
+      <c r="U960" s="1"/>
+      <c r="V960" s="1"/>
+      <c r="W960" s="1"/>
+      <c r="X960" s="1"/>
+      <c r="Y960" s="1"/>
+      <c r="Z960" s="1"/>
+      <c r="AA960" s="1"/>
+    </row>
+    <row r="961" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A961" s="1"/>
+      <c r="B961" s="2"/>
+      <c r="C961" s="1"/>
+      <c r="F961" s="1"/>
+      <c r="G961" s="7"/>
+      <c r="H961" s="7"/>
+      <c r="I961" s="3"/>
+      <c r="J961" s="1"/>
+      <c r="K961" s="1"/>
+      <c r="L961" s="1"/>
+      <c r="M961" s="1"/>
+      <c r="N961" s="1"/>
+      <c r="O961" s="1"/>
+      <c r="P961" s="1"/>
+      <c r="Q961" s="1"/>
+      <c r="R961" s="1"/>
+      <c r="S961" s="1"/>
+      <c r="T961" s="1"/>
+      <c r="U961" s="1"/>
+      <c r="V961" s="1"/>
+      <c r="W961" s="1"/>
+      <c r="X961" s="1"/>
+      <c r="Y961" s="1"/>
+      <c r="Z961" s="1"/>
+      <c r="AA961" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
